--- a/scene_cat_exp_2023.2/input_files/18_scenecat_categorization_kitchens_2.xlsx
+++ b/scene_cat_exp_2023.2/input_files/18_scenecat_categorization_kitchens_2.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S28"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -473,7 +473,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -497,29 +497,29 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>stimuli/img_inqod.png</t>
+          <t>stimuli/img_t90e2.png</t>
         </is>
       </c>
       <c r="M2">
-        <v>70.84848484848484</v>
+        <v>83.0625</v>
       </c>
       <c r="N2">
-        <v>50.63636363636363</v>
+        <v>61.96875</v>
       </c>
       <c r="O2">
-        <v>60.74242424242424</v>
+        <v>72.515625</v>
       </c>
       <c r="P2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="S2">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -541,7 +541,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -565,29 +565,29 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>stimuli/img_7wul8.png</t>
+          <t>stimuli/img_iyxnj.png</t>
         </is>
       </c>
       <c r="M3">
-        <v>43.03030303030303</v>
+        <v>75.30555555555556</v>
       </c>
       <c r="N3">
-        <v>25.54545454545455</v>
+        <v>54.33333333333334</v>
       </c>
       <c r="O3">
-        <v>34.28787878787879</v>
+        <v>64.81944444444444</v>
       </c>
       <c r="P3">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -609,7 +609,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -633,29 +633,29 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>stimuli/img_p3hpc.png</t>
+          <t>stimuli/img_60242.png</t>
         </is>
       </c>
       <c r="M4">
-        <v>72.83333333333333</v>
+        <v>78.33333333333333</v>
       </c>
       <c r="N4">
-        <v>52.22222222222222</v>
+        <v>57.57575757575758</v>
       </c>
       <c r="O4">
-        <v>62.52777777777777</v>
+        <v>67.95454545454545</v>
       </c>
       <c r="P4">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -677,7 +677,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -701,29 +701,29 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>stimuli/img_d8xbu.png</t>
+          <t>stimuli/img_wyl6z.png</t>
         </is>
       </c>
       <c r="M5">
-        <v>91.36363636363636</v>
+        <v>59.8235294117647</v>
       </c>
       <c r="N5">
-        <v>73.18181818181819</v>
+        <v>36.23529411764706</v>
       </c>
       <c r="O5">
-        <v>82.27272727272728</v>
+        <v>48.02941176470588</v>
       </c>
       <c r="P5">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="R5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S5">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -745,7 +745,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -769,29 +769,29 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>stimuli/img_463mq.png</t>
+          <t>stimuli/img_9mky8.png</t>
         </is>
       </c>
       <c r="M6">
-        <v>51.35294117647059</v>
+        <v>84.32352941176471</v>
       </c>
       <c r="N6">
-        <v>30.20588235294118</v>
+        <v>65.17647058823529</v>
       </c>
       <c r="O6">
-        <v>40.77941176470588</v>
+        <v>74.75</v>
       </c>
       <c r="P6">
         <v>34</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R6">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="S6">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -813,7 +813,7 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -837,29 +837,29 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>stimuli/img_3gm8h.png</t>
+          <t>stimuli/img_7wul8.png</t>
         </is>
       </c>
       <c r="M7">
-        <v>65.07894736842105</v>
+        <v>43.03030303030303</v>
       </c>
       <c r="N7">
-        <v>43.92105263157895</v>
+        <v>25.54545454545455</v>
       </c>
       <c r="O7">
-        <v>54.5</v>
+        <v>34.28787878787879</v>
       </c>
       <c r="P7">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -881,7 +881,7 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -905,29 +905,29 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>stimuli/img_cnyac.png</t>
+          <t>stimuli/img_3gm8h.png</t>
         </is>
       </c>
       <c r="M8">
-        <v>69.14705882352941</v>
+        <v>65.07894736842105</v>
       </c>
       <c r="N8">
-        <v>47.8235294117647</v>
+        <v>43.92105263157895</v>
       </c>
       <c r="O8">
-        <v>58.48529411764706</v>
+        <v>54.5</v>
       </c>
       <c r="P8">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S8">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -949,7 +949,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -958,44 +958,44 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>stimuli/img_nyv2b.png</t>
+          <t>stimuli/img_kn0we.png</t>
         </is>
       </c>
       <c r="M9">
-        <v>11.91176470588235</v>
+        <v>80.15909090909091</v>
       </c>
       <c r="N9">
-        <v>6.852941176470588</v>
+        <v>56.68181818181818</v>
       </c>
       <c r="O9">
-        <v>9.382352941176471</v>
+        <v>68.42045454545455</v>
       </c>
       <c r="P9">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1017,7 +1017,7 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1026,44 +1026,44 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>stimuli/img_aplao.png</t>
+          <t>stimuli/img_scrdm.png</t>
         </is>
       </c>
       <c r="M10">
-        <v>64.09090909090909</v>
+        <v>78.675</v>
       </c>
       <c r="N10">
-        <v>40.75757575757576</v>
+        <v>57.9</v>
       </c>
       <c r="O10">
-        <v>52.42424242424242</v>
+        <v>68.28749999999999</v>
       </c>
       <c r="P10">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S10">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1085,7 +1085,7 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1094,44 +1094,44 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>stimuli/img_eatdk.png</t>
+          <t>stimuli/img_53nbn.png</t>
         </is>
       </c>
       <c r="M11">
-        <v>81.40625</v>
+        <v>73.28888888888889</v>
       </c>
       <c r="N11">
-        <v>61.375</v>
+        <v>51.15555555555556</v>
       </c>
       <c r="O11">
-        <v>71.390625</v>
+        <v>62.22222222222223</v>
       </c>
       <c r="P11">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S11">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1153,7 +1153,7 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1177,29 +1177,29 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>stimuli/img_iyxnj.png</t>
+          <t>stimuli/img_aplao.png</t>
         </is>
       </c>
       <c r="M12">
-        <v>75.30555555555556</v>
+        <v>64.09090909090909</v>
       </c>
       <c r="N12">
-        <v>54.33333333333334</v>
+        <v>40.75757575757576</v>
       </c>
       <c r="O12">
-        <v>64.81944444444444</v>
+        <v>52.42424242424242</v>
       </c>
       <c r="P12">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S12">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1221,7 +1221,7 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1230,44 +1230,44 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>stimuli/img_53nbn.png</t>
+          <t>stimuli/img_d8xbu.png</t>
         </is>
       </c>
       <c r="M13">
-        <v>73.28888888888889</v>
+        <v>91.36363636363636</v>
       </c>
       <c r="N13">
-        <v>51.15555555555556</v>
+        <v>73.18181818181819</v>
       </c>
       <c r="O13">
-        <v>62.22222222222223</v>
+        <v>82.27272727272728</v>
       </c>
       <c r="P13">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="R13">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S13">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1289,7 +1289,7 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1313,29 +1313,29 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>stimuli/img_yeh72.png</t>
+          <t>stimuli/img_a8wvq.png</t>
         </is>
       </c>
       <c r="M14">
-        <v>68.66666666666667</v>
+        <v>86.25925925925925</v>
       </c>
       <c r="N14">
-        <v>45.21212121212121</v>
+        <v>66.25925925925925</v>
       </c>
       <c r="O14">
-        <v>56.93939393939394</v>
+        <v>76.25925925925925</v>
       </c>
       <c r="P14">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="R14">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="S14">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1357,7 +1357,7 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1381,29 +1381,29 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>stimuli/img_wyl6z.png</t>
+          <t>stimuli/img_inqod.png</t>
         </is>
       </c>
       <c r="M15">
-        <v>59.8235294117647</v>
+        <v>70.84848484848484</v>
       </c>
       <c r="N15">
-        <v>36.23529411764706</v>
+        <v>50.63636363636363</v>
       </c>
       <c r="O15">
-        <v>48.02941176470588</v>
+        <v>60.74242424242424</v>
       </c>
       <c r="P15">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S15">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1425,7 +1425,7 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1449,29 +1449,29 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>stimuli/img_9mky8.png</t>
+          <t>stimuli/img_463mq.png</t>
         </is>
       </c>
       <c r="M16">
-        <v>84.32352941176471</v>
+        <v>51.35294117647059</v>
       </c>
       <c r="N16">
-        <v>65.17647058823529</v>
+        <v>30.20588235294118</v>
       </c>
       <c r="O16">
-        <v>74.75</v>
+        <v>40.77941176470588</v>
       </c>
       <c r="P16">
         <v>34</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="R16">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1493,7 +1493,7 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1517,29 +1517,29 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>stimuli/img_scrdm.png</t>
+          <t>stimuli/img_g13d5.png</t>
         </is>
       </c>
       <c r="M17">
-        <v>78.675</v>
+        <v>73</v>
       </c>
       <c r="N17">
-        <v>57.9</v>
+        <v>51.51111111111111</v>
       </c>
       <c r="O17">
-        <v>68.28749999999999</v>
+        <v>62.25555555555556</v>
       </c>
       <c r="P17">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S17">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1561,7 +1561,7 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1570,44 +1570,44 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>stimuli/img_uwv6y.png</t>
+          <t>stimuli/img_jpjeg.png</t>
         </is>
       </c>
       <c r="M18">
-        <v>78.88888888888889</v>
+        <v>90.90697674418605</v>
       </c>
       <c r="N18">
-        <v>59.30555555555556</v>
+        <v>74.3953488372093</v>
       </c>
       <c r="O18">
-        <v>69.09722222222223</v>
+        <v>82.65116279069767</v>
       </c>
       <c r="P18">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S18">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1629,7 +1629,7 @@
         <v>18</v>
       </c>
       <c r="F19">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1638,44 +1638,44 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>stimuli/img_x9w7o.png</t>
+          <t>stimuli/img_eatdk.png</t>
         </is>
       </c>
       <c r="M19">
-        <v>92.38888888888889</v>
+        <v>81.40625</v>
       </c>
       <c r="N19">
-        <v>72.94444444444444</v>
+        <v>61.375</v>
       </c>
       <c r="O19">
-        <v>82.66666666666666</v>
+        <v>71.390625</v>
       </c>
       <c r="P19">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R19">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S19">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -1697,7 +1697,7 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1721,29 +1721,29 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>stimuli/img_60242.png</t>
+          <t>stimuli/img_uwv6y.png</t>
         </is>
       </c>
       <c r="M20">
-        <v>78.33333333333333</v>
+        <v>78.88888888888889</v>
       </c>
       <c r="N20">
-        <v>57.57575757575758</v>
+        <v>59.30555555555556</v>
       </c>
       <c r="O20">
-        <v>67.95454545454545</v>
+        <v>69.09722222222223</v>
       </c>
       <c r="P20">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S20">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1765,7 +1765,7 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1774,44 +1774,44 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>stimuli/img_jpjeg.png</t>
+          <t>stimuli/img_nyv2b.png</t>
         </is>
       </c>
       <c r="M21">
-        <v>90.90697674418605</v>
+        <v>11.91176470588235</v>
       </c>
       <c r="N21">
-        <v>74.3953488372093</v>
+        <v>6.852941176470588</v>
       </c>
       <c r="O21">
-        <v>82.65116279069767</v>
+        <v>9.382352941176471</v>
       </c>
       <c r="P21">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R21">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S21">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1833,7 +1833,7 @@
         <v>21</v>
       </c>
       <c r="F22">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1842,44 +1842,44 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>stimuli/img_kn0we.png</t>
+          <t>stimuli/img_cnyac.png</t>
         </is>
       </c>
       <c r="M22">
-        <v>80.15909090909091</v>
+        <v>69.14705882352941</v>
       </c>
       <c r="N22">
-        <v>56.68181818181818</v>
+        <v>47.8235294117647</v>
       </c>
       <c r="O22">
-        <v>68.42045454545455</v>
+        <v>58.48529411764706</v>
       </c>
       <c r="P22">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R22">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S22">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1901,7 +1901,7 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1925,29 +1925,29 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>stimuli/img_a8wvq.png</t>
+          <t>stimuli/img_p3hpc.png</t>
         </is>
       </c>
       <c r="M23">
-        <v>86.25925925925925</v>
+        <v>72.83333333333333</v>
       </c>
       <c r="N23">
-        <v>66.25925925925925</v>
+        <v>52.22222222222222</v>
       </c>
       <c r="O23">
-        <v>76.25925925925925</v>
+        <v>62.52777777777777</v>
       </c>
       <c r="P23">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R23">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="S23">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -1969,7 +1969,7 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1993,29 +1993,29 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>stimuli/img_ye5sl.png</t>
+          <t>stimuli/img_yeh72.png</t>
         </is>
       </c>
       <c r="M24">
-        <v>53.2258064516129</v>
+        <v>68.66666666666667</v>
       </c>
       <c r="N24">
-        <v>34.45161290322581</v>
+        <v>45.21212121212121</v>
       </c>
       <c r="O24">
-        <v>43.83870967741936</v>
+        <v>56.93939393939394</v>
       </c>
       <c r="P24">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -2037,7 +2037,7 @@
         <v>24</v>
       </c>
       <c r="F25">
-        <v>267</v>
+        <v>240</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2061,29 +2061,29 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>stimuli/img_ce9vx.png</t>
+          <t>stimuli/img_ye5sl.png</t>
         </is>
       </c>
       <c r="M25">
-        <v>75.90909090909091</v>
+        <v>53.2258064516129</v>
       </c>
       <c r="N25">
-        <v>57.12121212121212</v>
+        <v>34.45161290322581</v>
       </c>
       <c r="O25">
-        <v>66.51515151515152</v>
+        <v>43.83870967741936</v>
       </c>
       <c r="P25">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q25">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R25">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S25">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -2105,7 +2105,7 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2114,44 +2114,44 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>stimuli/img_t90e2.png</t>
+          <t>stimuli/img_x9w7o.png</t>
         </is>
       </c>
       <c r="M26">
-        <v>83.0625</v>
+        <v>92.38888888888889</v>
       </c>
       <c r="N26">
-        <v>61.96875</v>
+        <v>72.94444444444444</v>
       </c>
       <c r="O26">
-        <v>72.515625</v>
+        <v>82.66666666666666</v>
       </c>
       <c r="P26">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S26">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -2173,7 +2173,7 @@
         <v>26</v>
       </c>
       <c r="F27">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2182,112 +2182,44 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>stimuli/img_g13d5.png</t>
+          <t>stimuli/img_ce9vx.png</t>
         </is>
       </c>
       <c r="M27">
-        <v>73</v>
+        <v>75.90909090909091</v>
       </c>
       <c r="N27">
-        <v>51.51111111111111</v>
+        <v>57.12121212121212</v>
       </c>
       <c r="O27">
-        <v>62.25555555555556</v>
+        <v>66.51515151515152</v>
       </c>
       <c r="P27">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="Q27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28">
-        <v>18</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>categorization</t>
-        </is>
-      </c>
-      <c r="C28">
-        <v>5</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28">
-        <v>27</v>
-      </c>
-      <c r="F28">
-        <v>270</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>kitchens</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>kitchens</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>j</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>stimuli/img_r77yy.png</t>
-        </is>
-      </c>
-      <c r="M28">
-        <v>84.125</v>
-      </c>
-      <c r="N28">
-        <v>65.375</v>
-      </c>
-      <c r="O28">
-        <v>74.75</v>
-      </c>
-      <c r="P28">
-        <v>32</v>
-      </c>
-      <c r="Q28">
-        <v>9</v>
-      </c>
-      <c r="R28">
-        <v>9</v>
-      </c>
-      <c r="S28">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/scene_cat_exp_2023.2/input_files/18_scenecat_categorization_kitchens_2.xlsx
+++ b/scene_cat_exp_2023.2/input_files/18_scenecat_categorization_kitchens_2.xlsx
@@ -473,7 +473,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>217</v>
+        <v>269</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -497,29 +497,29 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>stimuli/img_t90e2.png</t>
+          <t>stimuli/img_d8xbu.png</t>
         </is>
       </c>
       <c r="M2">
-        <v>83.0625</v>
+        <v>91.36363636363636</v>
       </c>
       <c r="N2">
-        <v>61.96875</v>
+        <v>73.18181818181819</v>
       </c>
       <c r="O2">
-        <v>72.515625</v>
+        <v>82.27272727272728</v>
       </c>
       <c r="P2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -541,7 +541,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>218</v>
+        <v>270</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -565,29 +565,29 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>stimuli/img_iyxnj.png</t>
+          <t>stimuli/img_a8wvq.png</t>
         </is>
       </c>
       <c r="M3">
-        <v>75.30555555555556</v>
+        <v>86.25925925925925</v>
       </c>
       <c r="N3">
-        <v>54.33333333333334</v>
+        <v>66.25925925925925</v>
       </c>
       <c r="O3">
-        <v>64.81944444444444</v>
+        <v>76.25925925925925</v>
       </c>
       <c r="P3">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="R3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S3">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -609,7 +609,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>219</v>
+        <v>271</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -633,29 +633,29 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>stimuli/img_60242.png</t>
+          <t>stimuli/img_iyxnj.png</t>
         </is>
       </c>
       <c r="M4">
-        <v>78.33333333333333</v>
+        <v>75.30555555555556</v>
       </c>
       <c r="N4">
-        <v>57.57575757575758</v>
+        <v>54.33333333333334</v>
       </c>
       <c r="O4">
-        <v>67.95454545454545</v>
+        <v>64.81944444444444</v>
       </c>
       <c r="P4">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S4">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -677,7 +677,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>220</v>
+        <v>272</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -701,29 +701,29 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>stimuli/img_wyl6z.png</t>
+          <t>stimuli/img_es7o2.png</t>
         </is>
       </c>
       <c r="M5">
-        <v>59.8235294117647</v>
+        <v>52.48571428571429</v>
       </c>
       <c r="N5">
-        <v>36.23529411764706</v>
+        <v>27.54285714285714</v>
       </c>
       <c r="O5">
-        <v>48.02941176470588</v>
+        <v>40.01428571428572</v>
       </c>
       <c r="P5">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -745,7 +745,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>221</v>
+        <v>273</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -813,7 +813,7 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>222</v>
+        <v>274</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -837,29 +837,29 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>stimuli/img_7wul8.png</t>
+          <t>stimuli/img_ce9vx.png</t>
         </is>
       </c>
       <c r="M7">
-        <v>43.03030303030303</v>
+        <v>75.90909090909091</v>
       </c>
       <c r="N7">
-        <v>25.54545454545455</v>
+        <v>57.12121212121212</v>
       </c>
       <c r="O7">
-        <v>34.28787878787879</v>
+        <v>66.51515151515152</v>
       </c>
       <c r="P7">
         <v>33</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -881,7 +881,7 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>223</v>
+        <v>275</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -905,29 +905,29 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>stimuli/img_3gm8h.png</t>
+          <t>stimuli/img_t90e2.png</t>
         </is>
       </c>
       <c r="M8">
-        <v>65.07894736842105</v>
+        <v>83.0625</v>
       </c>
       <c r="N8">
-        <v>43.92105263157895</v>
+        <v>61.96875</v>
       </c>
       <c r="O8">
-        <v>54.5</v>
+        <v>72.515625</v>
       </c>
       <c r="P8">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="S8">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -949,7 +949,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>224</v>
+        <v>276</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -973,29 +973,29 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>stimuli/img_kn0we.png</t>
+          <t>stimuli/img_hmmra.png</t>
         </is>
       </c>
       <c r="M9">
-        <v>80.15909090909091</v>
+        <v>54.65853658536585</v>
       </c>
       <c r="N9">
-        <v>56.68181818181818</v>
+        <v>34.24390243902439</v>
       </c>
       <c r="O9">
-        <v>68.42045454545455</v>
+        <v>44.45121951219512</v>
       </c>
       <c r="P9">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S9">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1017,7 +1017,7 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>225</v>
+        <v>277</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1026,44 +1026,44 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>stimuli/img_scrdm.png</t>
+          <t>stimuli/img_inqod.png</t>
         </is>
       </c>
       <c r="M10">
-        <v>78.675</v>
+        <v>70.84848484848484</v>
       </c>
       <c r="N10">
-        <v>57.9</v>
+        <v>50.63636363636363</v>
       </c>
       <c r="O10">
-        <v>68.28749999999999</v>
+        <v>60.74242424242424</v>
       </c>
       <c r="P10">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S10">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1085,7 +1085,7 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>226</v>
+        <v>278</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1109,20 +1109,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>stimuli/img_53nbn.png</t>
+          <t>stimuli/img_37hgm.png</t>
         </is>
       </c>
       <c r="M11">
-        <v>73.28888888888889</v>
+        <v>70.95454545454545</v>
       </c>
       <c r="N11">
-        <v>51.15555555555556</v>
+        <v>54.77272727272727</v>
       </c>
       <c r="O11">
-        <v>62.22222222222223</v>
+        <v>62.86363636363636</v>
       </c>
       <c r="P11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -1153,7 +1153,7 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>227</v>
+        <v>279</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1162,44 +1162,44 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>stimuli/img_aplao.png</t>
+          <t>stimuli/img_3sw8t.png</t>
         </is>
       </c>
       <c r="M12">
-        <v>64.09090909090909</v>
+        <v>67.48888888888889</v>
       </c>
       <c r="N12">
-        <v>40.75757575757576</v>
+        <v>48.51111111111111</v>
       </c>
       <c r="O12">
-        <v>52.42424242424242</v>
+        <v>58</v>
       </c>
       <c r="P12">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S12">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1221,7 +1221,7 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>228</v>
+        <v>280</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1245,29 +1245,29 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>stimuli/img_d8xbu.png</t>
+          <t>stimuli/img_uwv6y.png</t>
         </is>
       </c>
       <c r="M13">
-        <v>91.36363636363636</v>
+        <v>78.88888888888889</v>
       </c>
       <c r="N13">
-        <v>73.18181818181819</v>
+        <v>59.30555555555556</v>
       </c>
       <c r="O13">
-        <v>82.27272727272728</v>
+        <v>69.09722222222223</v>
       </c>
       <c r="P13">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S13">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1289,7 +1289,7 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>229</v>
+        <v>281</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1313,29 +1313,29 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>stimuli/img_a8wvq.png</t>
+          <t>stimuli/img_cv6mf.png</t>
         </is>
       </c>
       <c r="M14">
-        <v>86.25925925925925</v>
+        <v>66.8</v>
       </c>
       <c r="N14">
-        <v>66.25925925925925</v>
+        <v>42.08</v>
       </c>
       <c r="O14">
-        <v>76.25925925925925</v>
+        <v>54.44</v>
       </c>
       <c r="P14">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R14">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S14">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1357,7 +1357,7 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <v>230</v>
+        <v>282</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1381,20 +1381,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>stimuli/img_inqod.png</t>
+          <t>stimuli/img_q1ynd.png</t>
         </is>
       </c>
       <c r="M15">
-        <v>70.84848484848484</v>
+        <v>70.05714285714286</v>
       </c>
       <c r="N15">
-        <v>50.63636363636363</v>
+        <v>47.31428571428572</v>
       </c>
       <c r="O15">
-        <v>60.74242424242424</v>
+        <v>58.68571428571429</v>
       </c>
       <c r="P15">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -1425,7 +1425,7 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <v>231</v>
+        <v>283</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1449,29 +1449,29 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>stimuli/img_463mq.png</t>
+          <t>stimuli/img_nyv2b.png</t>
         </is>
       </c>
       <c r="M16">
-        <v>51.35294117647059</v>
+        <v>11.91176470588235</v>
       </c>
       <c r="N16">
-        <v>30.20588235294118</v>
+        <v>6.852941176470588</v>
       </c>
       <c r="O16">
-        <v>40.77941176470588</v>
+        <v>9.382352941176471</v>
       </c>
       <c r="P16">
         <v>34</v>
       </c>
       <c r="Q16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1493,7 +1493,7 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <v>232</v>
+        <v>284</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1502,44 +1502,44 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>stimuli/img_g13d5.png</t>
+          <t>stimuli/img_ye5sl.png</t>
         </is>
       </c>
       <c r="M17">
-        <v>73</v>
+        <v>53.2258064516129</v>
       </c>
       <c r="N17">
-        <v>51.51111111111111</v>
+        <v>34.45161290322581</v>
       </c>
       <c r="O17">
-        <v>62.25555555555556</v>
+        <v>43.83870967741936</v>
       </c>
       <c r="P17">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S17">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1561,7 +1561,7 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <v>233</v>
+        <v>285</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1570,44 +1570,44 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>stimuli/img_jpjeg.png</t>
+          <t>stimuli/img_eatdk.png</t>
         </is>
       </c>
       <c r="M18">
-        <v>90.90697674418605</v>
+        <v>81.40625</v>
       </c>
       <c r="N18">
-        <v>74.3953488372093</v>
+        <v>61.375</v>
       </c>
       <c r="O18">
-        <v>82.65116279069767</v>
+        <v>71.390625</v>
       </c>
       <c r="P18">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="Q18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S18">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1629,7 +1629,7 @@
         <v>18</v>
       </c>
       <c r="F19">
-        <v>234</v>
+        <v>286</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1653,29 +1653,29 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>stimuli/img_eatdk.png</t>
+          <t>stimuli/img_wyl6z.png</t>
         </is>
       </c>
       <c r="M19">
-        <v>81.40625</v>
+        <v>59.8235294117647</v>
       </c>
       <c r="N19">
-        <v>61.375</v>
+        <v>36.23529411764706</v>
       </c>
       <c r="O19">
-        <v>71.390625</v>
+        <v>48.02941176470588</v>
       </c>
       <c r="P19">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R19">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S19">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1697,7 +1697,7 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <v>235</v>
+        <v>287</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1706,44 +1706,44 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>stimuli/img_uwv6y.png</t>
+          <t>stimuli/img_kq9s9.png</t>
         </is>
       </c>
       <c r="M20">
-        <v>78.88888888888889</v>
+        <v>62.30232558139535</v>
       </c>
       <c r="N20">
-        <v>59.30555555555556</v>
+        <v>39.97674418604651</v>
       </c>
       <c r="O20">
-        <v>69.09722222222223</v>
+        <v>51.13953488372093</v>
       </c>
       <c r="P20">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R20">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S20">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1765,7 +1765,7 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1789,20 +1789,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>stimuli/img_nyv2b.png</t>
+          <t>stimuli/img_7wul8.png</t>
         </is>
       </c>
       <c r="M21">
-        <v>11.91176470588235</v>
+        <v>43.03030303030303</v>
       </c>
       <c r="N21">
-        <v>6.852941176470588</v>
+        <v>25.54545454545455</v>
       </c>
       <c r="O21">
-        <v>9.382352941176471</v>
+        <v>34.28787878787879</v>
       </c>
       <c r="P21">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q21">
         <v>1</v>
@@ -1833,7 +1833,7 @@
         <v>21</v>
       </c>
       <c r="F22">
-        <v>237</v>
+        <v>289</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1857,29 +1857,29 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>stimuli/img_cnyac.png</t>
+          <t>stimuli/img_79b5l.png</t>
         </is>
       </c>
       <c r="M22">
-        <v>69.14705882352941</v>
+        <v>72.74285714285715</v>
       </c>
       <c r="N22">
-        <v>47.8235294117647</v>
+        <v>53.31428571428572</v>
       </c>
       <c r="O22">
-        <v>58.48529411764706</v>
+        <v>63.02857142857143</v>
       </c>
       <c r="P22">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S22">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -1901,7 +1901,7 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1910,35 +1910,35 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>stimuli/img_p3hpc.png</t>
+          <t>stimuli/img_iudc4.png</t>
         </is>
       </c>
       <c r="M23">
-        <v>72.83333333333333</v>
+        <v>73.625</v>
       </c>
       <c r="N23">
-        <v>52.22222222222222</v>
+        <v>52.275</v>
       </c>
       <c r="O23">
-        <v>62.52777777777777</v>
+        <v>62.95</v>
       </c>
       <c r="P23">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -1969,7 +1969,7 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <v>239</v>
+        <v>291</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1993,29 +1993,29 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>stimuli/img_yeh72.png</t>
+          <t>stimuli/img_aplao.png</t>
         </is>
       </c>
       <c r="M24">
-        <v>68.66666666666667</v>
+        <v>64.09090909090909</v>
       </c>
       <c r="N24">
-        <v>45.21212121212121</v>
+        <v>40.75757575757576</v>
       </c>
       <c r="O24">
-        <v>56.93939393939394</v>
+        <v>52.42424242424242</v>
       </c>
       <c r="P24">
         <v>33</v>
       </c>
       <c r="Q24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S24">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -2037,7 +2037,7 @@
         <v>24</v>
       </c>
       <c r="F25">
-        <v>240</v>
+        <v>292</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2061,29 +2061,29 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>stimuli/img_ye5sl.png</t>
+          <t>stimuli/img_yeh72.png</t>
         </is>
       </c>
       <c r="M25">
-        <v>53.2258064516129</v>
+        <v>68.66666666666667</v>
       </c>
       <c r="N25">
-        <v>34.45161290322581</v>
+        <v>45.21212121212121</v>
       </c>
       <c r="O25">
-        <v>43.83870967741936</v>
+        <v>56.93939393939394</v>
       </c>
       <c r="P25">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S25">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -2105,7 +2105,7 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <v>241</v>
+        <v>293</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2129,29 +2129,29 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>stimuli/img_x9w7o.png</t>
+          <t>stimuli/img_n9xll.png</t>
         </is>
       </c>
       <c r="M26">
-        <v>92.38888888888889</v>
+        <v>77.14285714285714</v>
       </c>
       <c r="N26">
-        <v>72.94444444444444</v>
+        <v>59.21428571428572</v>
       </c>
       <c r="O26">
-        <v>82.66666666666666</v>
+        <v>68.17857142857143</v>
       </c>
       <c r="P26">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="R26">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S26">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -2173,7 +2173,7 @@
         <v>26</v>
       </c>
       <c r="F27">
-        <v>242</v>
+        <v>294</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2197,17 +2197,17 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>stimuli/img_ce9vx.png</t>
+          <t>stimuli/img_60242.png</t>
         </is>
       </c>
       <c r="M27">
-        <v>75.90909090909091</v>
+        <v>78.33333333333333</v>
       </c>
       <c r="N27">
-        <v>57.12121212121212</v>
+        <v>57.57575757575758</v>
       </c>
       <c r="O27">
-        <v>66.51515151515152</v>
+        <v>67.95454545454545</v>
       </c>
       <c r="P27">
         <v>33</v>
